--- a/pre_data/Score_Number.xlsx
+++ b/pre_data/Score_Number.xlsx
@@ -657,7 +657,7 @@
         <v>0.1770606462826077</v>
       </c>
       <c r="G2">
-        <v>0.1620934382420385</v>
+        <v>0.16211606853125</v>
       </c>
       <c r="H2">
         <v>0.1945111175452947</v>
@@ -693,7 +693,7 @@
         <v>0.05939426122064809</v>
       </c>
       <c r="S2">
-        <v>0.07147447055299712</v>
+        <v>0.07149045650342283</v>
       </c>
       <c r="T2">
         <v>0.1022810839050679</v>
@@ -770,7 +770,7 @@
         <v>0.441076203792687</v>
       </c>
       <c r="G3">
-        <v>0.4446697976737947</v>
+        <v>0.4447158096126803</v>
       </c>
       <c r="H3">
         <v>0.4435210736656234</v>
@@ -806,7 +806,7 @@
         <v>0.4303115371437053</v>
       </c>
       <c r="S3">
-        <v>0.4425391659087614</v>
+        <v>0.4425932616574456</v>
       </c>
       <c r="T3">
         <v>0.4415479140970876</v>
@@ -883,7 +883,7 @@
         <v>0.3359507456867055</v>
       </c>
       <c r="G4">
-        <v>0.3411305206354545</v>
+        <v>0.3411733140784175</v>
       </c>
       <c r="H4">
         <v>0.3434497993225744</v>
@@ -919,7 +919,7 @@
         <v>0.3264114114293784</v>
       </c>
       <c r="S4">
-        <v>0.3375522310855021</v>
+        <v>0.3376023927332064</v>
       </c>
       <c r="T4">
         <v>0.3412899381064235</v>
@@ -967,13 +967,13 @@
         <v>0.3674204032455174</v>
       </c>
       <c r="AI4">
-        <v>0.3719361656435229</v>
+        <v>0.3725086941563979</v>
       </c>
       <c r="AJ4">
-        <v>0.3704432557756838</v>
+        <v>0.3710110279126342</v>
       </c>
       <c r="AK4">
-        <v>0.3745984876516368</v>
+        <v>0.3751615817902969</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -996,7 +996,7 @@
         <v>0.4524105308357876</v>
       </c>
       <c r="G5">
-        <v>0.4563937539427357</v>
+        <v>0.4564397551437394</v>
       </c>
       <c r="H5">
         <v>0.4561920754396976</v>
@@ -1032,7 +1032,7 @@
         <v>0.4394392748667982</v>
       </c>
       <c r="S5">
-        <v>0.4536960213858384</v>
+        <v>0.4537496872148525</v>
       </c>
       <c r="T5">
         <v>0.4536854794123869</v>
@@ -1109,7 +1109,7 @@
         <v>0.4158930010955532</v>
       </c>
       <c r="G6">
-        <v>0.4052504826397223</v>
+        <v>0.4052881076001086</v>
       </c>
       <c r="H6">
         <v>0.4308807292752391</v>
@@ -1145,7 +1145,7 @@
         <v>0.4163564529553425</v>
       </c>
       <c r="S6">
-        <v>0.4022464967736287</v>
+        <v>0.4022895583703989</v>
       </c>
       <c r="T6">
         <v>0.426470338639506</v>
@@ -1222,7 +1222,7 @@
         <v>0.4407324096323826</v>
       </c>
       <c r="G7">
-        <v>0.4509108704319139</v>
+        <v>0.4509561681336123</v>
       </c>
       <c r="H7">
         <v>0.4507063364119909</v>
@@ -1258,7 +1258,7 @@
         <v>0.4287042272088736</v>
       </c>
       <c r="S7">
-        <v>0.4478426840082487</v>
+        <v>0.4478955887965061</v>
       </c>
       <c r="T7">
         <v>0.4473185275687282</v>
@@ -1335,7 +1335,7 @@
         <v>0.4500748029586145</v>
       </c>
       <c r="G8">
-        <v>0.4547138272577876</v>
+        <v>0.4547597660922429</v>
       </c>
       <c r="H8">
         <v>0.4547447245614194</v>
@@ -1371,7 +1371,7 @@
         <v>0.4389874514279497</v>
       </c>
       <c r="S8">
-        <v>0.4538029038758027</v>
+        <v>0.4538565220150666</v>
       </c>
       <c r="T8">
         <v>0.4540288786101815</v>
@@ -1448,7 +1448,7 @@
         <v>0.4476857556972852</v>
       </c>
       <c r="G9">
-        <v>0.4557195790191486</v>
+        <v>0.4557652588987497</v>
       </c>
       <c r="H9">
         <v>0.4565675271976874</v>
@@ -1484,7 +1484,7 @@
         <v>0.4454079544715654</v>
       </c>
       <c r="S9">
-        <v>0.4583600301557225</v>
+        <v>0.4584140566645981</v>
       </c>
       <c r="T9">
         <v>0.4582942171020817</v>
@@ -1496,49 +1496,49 @@
         <v>0.450390204294657</v>
       </c>
       <c r="W9">
-        <v>0.4573284881562998</v>
+        <v>0.4564739365838748</v>
       </c>
       <c r="X9">
-        <v>0.4523998848378068</v>
+        <v>0.4515592102082342</v>
       </c>
       <c r="Y9">
-        <v>0.4566561871965445</v>
+        <v>0.4558289460201426</v>
       </c>
       <c r="Z9">
-        <v>0.4568977101954343</v>
+        <v>0.4560834799082027</v>
       </c>
       <c r="AA9">
-        <v>0.4524146775526686</v>
+        <v>0.4516130552201929</v>
       </c>
       <c r="AB9">
-        <v>0.4490194700929222</v>
+        <v>0.4482300712130953</v>
       </c>
       <c r="AC9">
-        <v>0.457921510593957</v>
+        <v>0.4571439679896125</v>
       </c>
       <c r="AD9">
-        <v>0.4537380435387737</v>
+        <v>0.4529720063322482</v>
       </c>
       <c r="AE9">
-        <v>0.4588785913732916</v>
+        <v>0.4581237240357489</v>
       </c>
       <c r="AF9">
-        <v>0.4581858024396436</v>
+        <v>0.457441783908713</v>
       </c>
       <c r="AG9">
-        <v>0.4585299780347154</v>
+        <v>0.4577965008946375</v>
       </c>
       <c r="AH9">
-        <v>0.4534324914499894</v>
+        <v>0.4527092611690304</v>
       </c>
       <c r="AI9">
-        <v>0.4589876197118976</v>
+        <v>0.4582743539322958</v>
       </c>
       <c r="AJ9">
-        <v>0.4547109806442026</v>
+        <v>0.4540074085203664</v>
       </c>
       <c r="AK9">
-        <v>0.4579349308719368</v>
+        <v>0.45724079245301</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1561,7 +1561,7 @@
         <v>0.4789037792714487</v>
       </c>
       <c r="G10">
-        <v>0.4698951484456899</v>
+        <v>0.4699397228061685</v>
       </c>
       <c r="H10">
         <v>0.4744254605339623</v>
@@ -1597,7 +1597,7 @@
         <v>0.4676516901373378</v>
       </c>
       <c r="S10">
-        <v>0.4711358968669249</v>
+        <v>0.4711888297061254</v>
       </c>
       <c r="T10">
         <v>0.4756455907493631</v>
@@ -1674,7 +1674,7 @@
         <v>0.2406292957119588</v>
       </c>
       <c r="G11">
-        <v>0.2669594532925545</v>
+        <v>0.2669948271136652</v>
       </c>
       <c r="H11">
         <v>0.2802553765624345</v>
@@ -1710,7 +1710,7 @@
         <v>0.1795808963519785</v>
       </c>
       <c r="S11">
-        <v>0.2215528356002043</v>
+        <v>0.2215903804578631</v>
       </c>
       <c r="T11">
         <v>0.23869928849254</v>
@@ -1787,7 +1787,7 @@
         <v>0.4316395396560643</v>
       </c>
       <c r="G12">
-        <v>0.4225922235881516</v>
+        <v>0.4226339944266065</v>
       </c>
       <c r="H12">
         <v>0.4263056676461063</v>
@@ -1814,70 +1814,70 @@
         <v>0.4486721599051811</v>
       </c>
       <c r="P12">
-        <v>0.4401340763659574</v>
+        <v>0.4386094449925408</v>
       </c>
       <c r="Q12">
-        <v>0.4590964783792175</v>
+        <v>0.457599780541678</v>
       </c>
       <c r="R12">
-        <v>0.4489197168101556</v>
+        <v>0.4474499473557657</v>
       </c>
       <c r="S12">
-        <v>0.4394213004813308</v>
+        <v>0.4380272094760568</v>
       </c>
       <c r="T12">
-        <v>0.4343969153050465</v>
+        <v>0.4329781966358548</v>
       </c>
       <c r="U12">
-        <v>0.423412239754688</v>
+        <v>0.4220177392864028</v>
       </c>
       <c r="V12">
-        <v>0.4529976148826512</v>
+        <v>0.451626519660434</v>
       </c>
       <c r="W12">
-        <v>0.4586478429155357</v>
+        <v>0.4572993802426719</v>
       </c>
       <c r="X12">
-        <v>0.4534783684181803</v>
+        <v>0.4521518032410953</v>
       </c>
       <c r="Y12">
-        <v>0.4575011407830554</v>
+        <v>0.4561957732852595</v>
       </c>
       <c r="Z12">
-        <v>0.4579363119085288</v>
+        <v>0.4566514752937751</v>
       </c>
       <c r="AA12">
-        <v>0.4534850922686322</v>
+        <v>0.4522201507157075</v>
       </c>
       <c r="AB12">
-        <v>0.4507267082321049</v>
+        <v>0.449481055005552</v>
       </c>
       <c r="AC12">
-        <v>0.4592597876993902</v>
+        <v>0.4580328434021087</v>
       </c>
       <c r="AD12">
-        <v>0.4547949227170515</v>
+        <v>0.4535861336721807</v>
       </c>
       <c r="AE12">
-        <v>0.4448792155453766</v>
+        <v>0.4436880522961513</v>
       </c>
       <c r="AF12">
-        <v>0.4328726737316889</v>
+        <v>0.4316986296490927</v>
       </c>
       <c r="AG12">
-        <v>0.4303768450681951</v>
+        <v>0.4292194350572497</v>
       </c>
       <c r="AH12">
-        <v>0.4538301291921492</v>
+        <v>0.452688888488571</v>
       </c>
       <c r="AI12">
-        <v>0.459340114942965</v>
+        <v>0.4582145979927185</v>
       </c>
       <c r="AJ12">
-        <v>0.4549958532271001</v>
+        <v>0.4538856326420881</v>
       </c>
       <c r="AK12">
-        <v>0.4581850157002205</v>
+        <v>0.4570896812839872</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -1900,7 +1900,7 @@
         <v>0.2878570047315856</v>
       </c>
       <c r="G13">
-        <v>0.2769326083531283</v>
+        <v>0.2769644049590662</v>
       </c>
       <c r="H13">
         <v>0.2969759260991617</v>
@@ -1936,7 +1936,7 @@
         <v>0.3301111076218525</v>
       </c>
       <c r="S13">
-        <v>0.3034167081726933</v>
+        <v>0.3034533712060571</v>
       </c>
       <c r="T13">
         <v>0.3124308290773961</v>
@@ -2013,7 +2013,7 @@
         <v>0.5396345166515704</v>
       </c>
       <c r="G14">
-        <v>0.5080893480296657</v>
+        <v>0.508129719038501</v>
       </c>
       <c r="H14">
         <v>0.5272549180289254</v>
@@ -2034,76 +2034,76 @@
         <v>0.5186579205748271</v>
       </c>
       <c r="N14">
-        <v>0.5116233566811001</v>
+        <v>0.5105330143951061</v>
       </c>
       <c r="O14">
-        <v>0.4797908579528702</v>
+        <v>0.4786985962700585</v>
       </c>
       <c r="P14">
-        <v>0.5101254977448415</v>
+        <v>0.5090447916897936</v>
       </c>
       <c r="Q14">
-        <v>0.5158304931537321</v>
+        <v>0.5147695872562091</v>
       </c>
       <c r="R14">
-        <v>0.5174471351990614</v>
+        <v>0.5164053169756017</v>
       </c>
       <c r="S14">
-        <v>0.4917485544981043</v>
+        <v>0.4907717409899905</v>
       </c>
       <c r="T14">
-        <v>0.5108151277253103</v>
+        <v>0.5098094958834513</v>
       </c>
       <c r="U14">
-        <v>0.5037977111359497</v>
+        <v>0.5028092459068328</v>
       </c>
       <c r="V14">
-        <v>0.5000041667270559</v>
+        <v>0.4990322918630505</v>
       </c>
       <c r="W14">
-        <v>0.5214681047530028</v>
+        <v>0.5205122725426866</v>
       </c>
       <c r="X14">
-        <v>0.5059585243578038</v>
+        <v>0.5050182137723808</v>
       </c>
       <c r="Y14">
-        <v>0.5086662753011006</v>
+        <v>0.5077409902889147</v>
       </c>
       <c r="Z14">
-        <v>0.5030585007692958</v>
+        <v>0.5021477686844641</v>
       </c>
       <c r="AA14">
-        <v>0.4790909714463399</v>
+        <v>0.4781943415990451</v>
       </c>
       <c r="AB14">
-        <v>0.5068888969656041</v>
+        <v>0.5060059392829159</v>
       </c>
       <c r="AC14">
-        <v>0.5117764263524847</v>
+        <v>0.5109067301397487</v>
       </c>
       <c r="AD14">
-        <v>0.5089343762613512</v>
+        <v>0.5080775490552181</v>
       </c>
       <c r="AE14">
-        <v>0.4780664667837433</v>
+        <v>0.4772221332888187</v>
       </c>
       <c r="AF14">
-        <v>0.4946639719057617</v>
+        <v>0.4938317730076688</v>
       </c>
       <c r="AG14">
-        <v>0.4929891371638547</v>
+        <v>0.4921687290122116</v>
       </c>
       <c r="AH14">
-        <v>0.4944873387896433</v>
+        <v>0.4936783919450954</v>
       </c>
       <c r="AI14">
-        <v>0.5088809485028505</v>
+        <v>0.5080831471428635</v>
       </c>
       <c r="AJ14">
-        <v>0.4991307942129699</v>
+        <v>0.4983438353915909</v>
       </c>
       <c r="AK14">
-        <v>0.5002658411002677</v>
+        <v>0.4994894340575127</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -2126,7 +2126,7 @@
         <v>0.4330684459061954</v>
       </c>
       <c r="G15">
-        <v>0.3811027614665896</v>
+        <v>0.3811348884071669</v>
       </c>
       <c r="H15">
         <v>0.4217358520088902</v>
@@ -2162,7 +2162,7 @@
         <v>0.3963559850945737</v>
       </c>
       <c r="S15">
-        <v>0.3523596070695179</v>
+        <v>0.3523926334965453</v>
       </c>
       <c r="T15">
         <v>0.395462191926872</v>
@@ -2239,7 +2239,7 @@
         <v>0.4633482511828674</v>
       </c>
       <c r="G16">
-        <v>0.5021939569919346</v>
+        <v>0.5022360194480378</v>
       </c>
       <c r="H16">
         <v>0.5072207795810492</v>
@@ -2275,7 +2275,7 @@
         <v>0.4443497834943297</v>
       </c>
       <c r="S16">
-        <v>0.4919553187418321</v>
+        <v>0.492003745475747</v>
       </c>
       <c r="T16">
         <v>0.4993956668290949</v>
@@ -2340,109 +2340,109 @@
         <v>0.4564340153741535</v>
       </c>
       <c r="C17">
-        <v>0.4499028619549525</v>
+        <v>0.449744165949107</v>
       </c>
       <c r="D17">
-        <v>0.4395734793789301</v>
+        <v>0.4393031609034264</v>
       </c>
       <c r="E17">
-        <v>0.4580902142459091</v>
+        <v>0.4577969176207322</v>
       </c>
       <c r="F17">
-        <v>0.4573395129439885</v>
+        <v>0.4572089260576669</v>
       </c>
       <c r="G17">
         <v>0.46</v>
       </c>
       <c r="H17">
-        <v>0.459617111287258</v>
+        <v>0.4595897306558849</v>
       </c>
       <c r="I17">
-        <v>0.4599062739039654</v>
+        <v>0.4598733574499799</v>
       </c>
       <c r="J17">
-        <v>0.4493390324576776</v>
+        <v>0.4492356228013283</v>
       </c>
       <c r="K17">
-        <v>0.4572721821387896</v>
+        <v>0.4571700189508625</v>
       </c>
       <c r="L17">
-        <v>0.4515218120118761</v>
+        <v>0.4514324990970404</v>
       </c>
       <c r="M17">
-        <v>0.4569739555506385</v>
+        <v>0.4568854760642979</v>
       </c>
       <c r="N17">
-        <v>0.45792864784194</v>
+        <v>0.4578224622996725</v>
       </c>
       <c r="O17">
-        <v>0.4508228617302791</v>
+        <v>0.4507004304587727</v>
       </c>
       <c r="P17">
-        <v>0.4403815170214987</v>
+        <v>0.440151427943438</v>
       </c>
       <c r="Q17">
-        <v>0.4593365239230777</v>
+        <v>0.4591247746103034</v>
       </c>
       <c r="R17">
-        <v>0.4490723710908863</v>
+        <v>0.4489446270166133</v>
       </c>
       <c r="S17">
         <v>0.46</v>
       </c>
       <c r="T17">
-        <v>0.4594354620021038</v>
+        <v>0.4593952388701248</v>
       </c>
       <c r="U17">
-        <v>0.4585559249780695</v>
+        <v>0.4585027878170953</v>
       </c>
       <c r="V17">
-        <v>0.4520480356463902</v>
+        <v>0.4519616579699732</v>
       </c>
       <c r="W17">
-        <v>0.4587809067298591</v>
+        <v>0.4586953589350422</v>
       </c>
       <c r="X17">
-        <v>0.4536034992931555</v>
+        <v>0.4535271830915023</v>
       </c>
       <c r="Y17">
-        <v>0.457763857056574</v>
+        <v>0.4576883044875782</v>
       </c>
       <c r="Z17">
-        <v>0.4580964251072145</v>
+        <v>0.4580085458800207</v>
       </c>
       <c r="AA17">
-        <v>0.4536757296702303</v>
+        <v>0.4535764705046226</v>
       </c>
       <c r="AB17">
-        <v>0.4510785529932122</v>
+        <v>0.4509047661021828</v>
       </c>
       <c r="AC17">
-        <v>0.4595795279245223</v>
+        <v>0.4594297090202687</v>
       </c>
       <c r="AD17">
-        <v>0.4550882445781089</v>
+        <v>0.4549578627137841</v>
       </c>
       <c r="AE17">
-        <v>0.459428184235099</v>
+        <v>0.4593715898165651</v>
       </c>
       <c r="AF17">
-        <v>0.4586560028701163</v>
+        <v>0.4586044971004173</v>
       </c>
       <c r="AG17">
-        <v>0.4589863333632189</v>
+        <v>0.4589333076693498</v>
       </c>
       <c r="AH17">
-        <v>0.4540361445279959</v>
+        <v>0.4539619817541388</v>
       </c>
       <c r="AI17">
-        <v>0.4595552599739796</v>
+        <v>0.4594817880945373</v>
       </c>
       <c r="AJ17">
-        <v>0.4552014996976929</v>
+        <v>0.4551348781826814</v>
       </c>
       <c r="AK17">
-        <v>0.4583995169311249</v>
+        <v>0.4583335955272144</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2465,7 +2465,7 @@
         <v>0.2710390201595924</v>
       </c>
       <c r="G18">
-        <v>0.2703653366255885</v>
+        <v>0.2704079926639519</v>
       </c>
       <c r="H18">
         <v>0.2710590082034261</v>
@@ -2501,7 +2501,7 @@
         <v>0.2581371936612408</v>
       </c>
       <c r="S18">
-        <v>0.2705729228072588</v>
+        <v>0.2706224557625662</v>
       </c>
       <c r="T18">
         <v>0.2780020001167217</v>
@@ -2578,7 +2578,7 @@
         <v>0.352695110298777</v>
       </c>
       <c r="G19">
-        <v>0.3540094530300154</v>
+        <v>0.3540477677577548</v>
       </c>
       <c r="H19">
         <v>0.374467744958764</v>
@@ -2614,7 +2614,7 @@
         <v>0.3316062797691774</v>
       </c>
       <c r="S19">
-        <v>0.3383431399985564</v>
+        <v>0.3383861717977727</v>
       </c>
       <c r="T19">
         <v>0.3609064100546956</v>
@@ -2691,7 +2691,7 @@
         <v>0.4309322708211508</v>
       </c>
       <c r="G20">
-        <v>0.4092564943473157</v>
+        <v>0.4092979059323431</v>
       </c>
       <c r="H20">
         <v>0.4177248872488269</v>
@@ -2727,7 +2727,7 @@
         <v>0.4376640545864957</v>
       </c>
       <c r="S20">
-        <v>0.4260711088691712</v>
+        <v>0.4261200089795913</v>
       </c>
       <c r="T20">
         <v>0.4302763185846006</v>
@@ -2751,37 +2751,37 @@
         <v>0.4184006240413617</v>
       </c>
       <c r="AA20">
-        <v>0.4239672786823703</v>
+        <v>0.4226231501623846</v>
       </c>
       <c r="AB20">
-        <v>0.3814028241451327</v>
+        <v>0.3800791914255413</v>
       </c>
       <c r="AC20">
-        <v>0.4592597876993902</v>
+        <v>0.4579560351120893</v>
       </c>
       <c r="AD20">
-        <v>0.4547949227170515</v>
+        <v>0.4535104619242974</v>
       </c>
       <c r="AE20">
-        <v>0.4397211349524636</v>
+        <v>0.4384554033528171</v>
       </c>
       <c r="AF20">
-        <v>0.4369650690991103</v>
+        <v>0.4357175283479274</v>
       </c>
       <c r="AG20">
-        <v>0.4215695236509124</v>
+        <v>0.4203396582856457</v>
       </c>
       <c r="AH20">
-        <v>0.4538301291921492</v>
+        <v>0.4526174453536737</v>
       </c>
       <c r="AI20">
-        <v>0.4499999140125232</v>
+        <v>0.4488039382545478</v>
       </c>
       <c r="AJ20">
-        <v>0.4549958532271001</v>
+        <v>0.4538161314064835</v>
       </c>
       <c r="AK20">
-        <v>0.4581850157002205</v>
+        <v>0.4570211119416815</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -2804,7 +2804,7 @@
         <v>0.3468806933431037</v>
       </c>
       <c r="G21">
-        <v>0.3403763014968058</v>
+        <v>0.340417851674544</v>
       </c>
       <c r="H21">
         <v>0.3455943071496461</v>
@@ -2840,7 +2840,7 @@
         <v>0.3715499073011844</v>
       </c>
       <c r="S21">
-        <v>0.3683510556202201</v>
+        <v>0.3683997122148293</v>
       </c>
       <c r="T21">
         <v>0.3723136533063693</v>
@@ -2885,16 +2885,16 @@
         <v>0.4071034551280688</v>
       </c>
       <c r="AH21">
-        <v>0.4293872756597907</v>
+        <v>0.4303703138420446</v>
       </c>
       <c r="AI21">
-        <v>0.4373464399505779</v>
+        <v>0.4383212429644628</v>
       </c>
       <c r="AJ21">
-        <v>0.4353847855347512</v>
+        <v>0.4363514902103313</v>
       </c>
       <c r="AK21">
-        <v>0.4408926618891057</v>
+        <v>0.4418514016743269</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -2917,7 +2917,7 @@
         <v>0.4533351933225434</v>
       </c>
       <c r="G22">
-        <v>0.4158373276741363</v>
+        <v>0.4158759284869975</v>
       </c>
       <c r="H22">
         <v>0.4500933733646617</v>
@@ -2941,73 +2941,73 @@
         <v>0.4442494015340244</v>
       </c>
       <c r="O22">
-        <v>0.3905640109188929</v>
+        <v>0.3892231786964185</v>
       </c>
       <c r="P22">
-        <v>0.4401340763659574</v>
+        <v>0.438807429533578</v>
       </c>
       <c r="Q22">
-        <v>0.4097618794154906</v>
+        <v>0.408459538744938</v>
       </c>
       <c r="R22">
-        <v>0.4491704195385794</v>
+        <v>0.4478915104035634</v>
       </c>
       <c r="S22">
-        <v>0.4142995379568921</v>
+        <v>0.4130873153061098</v>
       </c>
       <c r="T22">
-        <v>0.4519359378765552</v>
+        <v>0.4507014502086916</v>
       </c>
       <c r="U22">
-        <v>0.4410226895464777</v>
+        <v>0.439809275168905</v>
       </c>
       <c r="V22">
-        <v>0.4519205808799408</v>
+        <v>0.4507275324059553</v>
       </c>
       <c r="W22">
-        <v>0.4586478429155357</v>
+        <v>0.4574744879887459</v>
       </c>
       <c r="X22">
-        <v>0.4534988441146083</v>
+        <v>0.4523445431335253</v>
       </c>
       <c r="Y22">
-        <v>0.4555597775114238</v>
+        <v>0.4544239215358505</v>
       </c>
       <c r="Z22">
-        <v>0.4487470963710993</v>
+        <v>0.4476291051931608</v>
       </c>
       <c r="AA22">
-        <v>0.4068605191334317</v>
+        <v>0.4057598394979524</v>
       </c>
       <c r="AB22">
-        <v>0.4507267082321049</v>
+        <v>0.4496428121926667</v>
       </c>
       <c r="AC22">
-        <v>0.4282891834479764</v>
+        <v>0.4272215668464323</v>
       </c>
       <c r="AD22">
-        <v>0.4547949227170515</v>
+        <v>0.4537431037755331</v>
       </c>
       <c r="AE22">
-        <v>0.4129404325174146</v>
+        <v>0.4119039505329921</v>
       </c>
       <c r="AF22">
-        <v>0.4500967371031051</v>
+        <v>0.4490751512362475</v>
       </c>
       <c r="AG22">
-        <v>0.4425612023341126</v>
+        <v>0.4415540904829744</v>
       </c>
       <c r="AH22">
-        <v>0.4538301291921492</v>
+        <v>0.4528370869454902</v>
       </c>
       <c r="AI22">
-        <v>0.459340114942965</v>
+        <v>0.4583607546052016</v>
       </c>
       <c r="AJ22">
-        <v>0.4549958532271001</v>
+        <v>0.4540298029096073</v>
       </c>
       <c r="AK22">
-        <v>0.4581073083314667</v>
+        <v>0.4571542111048001</v>
       </c>
     </row>
     <row r="23" spans="1:37">
@@ -3030,7 +3030,7 @@
         <v>0.4253448113572532</v>
       </c>
       <c r="G23">
-        <v>0.4233352915376366</v>
+        <v>0.4233790639310242</v>
       </c>
       <c r="H23">
         <v>0.4267505426795306</v>
@@ -3066,7 +3066,7 @@
         <v>0.4110220673528061</v>
       </c>
       <c r="S23">
-        <v>0.4171174041237127</v>
+        <v>0.4171681951805903</v>
       </c>
       <c r="T23">
         <v>0.4202416676383354</v>
@@ -3143,7 +3143,7 @@
         <v>0.4492349366065979</v>
       </c>
       <c r="G24">
-        <v>0.4507581699143632</v>
+        <v>0.4508042028863095</v>
       </c>
       <c r="H24">
         <v>0.4511756113330458</v>
@@ -3179,7 +3179,7 @@
         <v>0.4396636767027673</v>
       </c>
       <c r="S24">
-        <v>0.4503382692662836</v>
+        <v>0.4503925226641787</v>
       </c>
       <c r="T24">
         <v>0.4506426107224252</v>
@@ -3256,7 +3256,7 @@
         <v>0.4262813415783997</v>
       </c>
       <c r="G25">
-        <v>0.431507786351376</v>
+        <v>0.4315527159158573</v>
       </c>
       <c r="H25">
         <v>0.4328663229972151</v>
@@ -3292,7 +3292,7 @@
         <v>0.415514381453672</v>
       </c>
       <c r="S25">
-        <v>0.4297853622997948</v>
+        <v>0.4298377487060441</v>
       </c>
       <c r="T25">
         <v>0.4313378759652131</v>
@@ -3369,7 +3369,7 @@
         <v>0.431854281352723</v>
       </c>
       <c r="G26">
-        <v>0.4114571747069908</v>
+        <v>0.4114990614513638</v>
       </c>
       <c r="H26">
         <v>0.4190016344333218</v>
@@ -3405,7 +3405,7 @@
         <v>0.4236720948387317</v>
       </c>
       <c r="S26">
-        <v>0.4130250690070969</v>
+        <v>0.4130743988847135</v>
       </c>
       <c r="T26">
         <v>0.4178156137482707</v>
@@ -3482,7 +3482,7 @@
         <v>0.4333457762135996</v>
       </c>
       <c r="G27">
-        <v>0.4355821295745574</v>
+        <v>0.4356275173189347</v>
       </c>
       <c r="H27">
         <v>0.4367803301340776</v>
@@ -3518,7 +3518,7 @@
         <v>0.4387635773506164</v>
       </c>
       <c r="S27">
-        <v>0.4487868604836388</v>
+        <v>0.4488406859273992</v>
       </c>
       <c r="T27">
         <v>0.4490894027407332</v>
@@ -3551,28 +3551,28 @@
         <v>0.4592471162825768</v>
       </c>
       <c r="AD27">
-        <v>0.4547949227170515</v>
+        <v>0.4536071672585211</v>
       </c>
       <c r="AE27">
-        <v>0.46</v>
+        <v>0.4588295636386915</v>
       </c>
       <c r="AF27">
-        <v>0.4582315673345295</v>
+        <v>0.4570779522570467</v>
       </c>
       <c r="AG27">
-        <v>0.4578232789108293</v>
+        <v>0.4566860084631103</v>
       </c>
       <c r="AH27">
-        <v>0.4538301291921492</v>
+        <v>0.4527087466970615</v>
       </c>
       <c r="AI27">
-        <v>0.459340114942965</v>
+        <v>0.4582341825993553</v>
       </c>
       <c r="AJ27">
-        <v>0.4549958532271001</v>
+        <v>0.4539049510836565</v>
       </c>
       <c r="AK27">
-        <v>0.4581850157002205</v>
+        <v>0.4571087406981283</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -3595,7 +3595,7 @@
         <v>0.4564215808272976</v>
       </c>
       <c r="G28">
-        <v>0.4596710737394381</v>
+        <v>0.4597171849869862</v>
       </c>
       <c r="H28">
         <v>0.4594193513074664</v>
@@ -3631,7 +3631,7 @@
         <v>0.4480085666366699</v>
       </c>
       <c r="S28">
-        <v>0.4595410116075762</v>
+        <v>0.4595952134976735</v>
       </c>
       <c r="T28">
         <v>0.4590901896371809</v>
@@ -3708,7 +3708,7 @@
         <v>0.4505999027817663</v>
       </c>
       <c r="G29">
-        <v>0.4522141804006582</v>
+        <v>0.4522600814481072</v>
       </c>
       <c r="H29">
         <v>0.4526899308004228</v>
@@ -3744,7 +3744,7 @@
         <v>0.4438985811823388</v>
       </c>
       <c r="S29">
-        <v>0.4534546673281006</v>
+        <v>0.4535086468260259</v>
       </c>
       <c r="T29">
         <v>0.453956682204614</v>
@@ -3821,7 +3821,7 @@
         <v>0.2872594530492574</v>
       </c>
       <c r="G30">
-        <v>0.3057347524301908</v>
+        <v>0.3057729595403559</v>
       </c>
       <c r="H30">
         <v>0.3178684729691664</v>
@@ -3857,7 +3857,7 @@
         <v>0.2826332223222666</v>
       </c>
       <c r="S30">
-        <v>0.3014840270429708</v>
+        <v>0.3015279874731289</v>
       </c>
       <c r="T30">
         <v>0.3127361563852</v>
@@ -3934,7 +3934,7 @@
         <v>0.2537590972832581</v>
       </c>
       <c r="G31">
-        <v>0.08393658890855035</v>
+        <v>0.08393895612542202</v>
       </c>
       <c r="H31">
         <v>0.1752981481099991</v>
@@ -4021,10 +4021,10 @@
         <v>0.4795676216297817</v>
       </c>
       <c r="AJ31">
-        <v>0.4760809334600339</v>
+        <v>0.4748327545702207</v>
       </c>
       <c r="AK31">
-        <v>0.4792276351079486</v>
+        <v>0.4779961921730172</v>
       </c>
     </row>
     <row r="32" spans="1:37">
@@ -4047,7 +4047,7 @@
         <v>0.452461805399908</v>
       </c>
       <c r="G32">
-        <v>0.4563177133793303</v>
+        <v>0.4563637384650263</v>
       </c>
       <c r="H32">
         <v>0.4561122796223741</v>
@@ -4083,7 +4083,7 @@
         <v>0.4419060148088738</v>
       </c>
       <c r="S32">
-        <v>0.4550128118505665</v>
+        <v>0.4550667279017807</v>
       </c>
       <c r="T32">
         <v>0.4548582493817367</v>
@@ -4160,7 +4160,7 @@
         <v>0.2644909498644578</v>
       </c>
       <c r="G33">
-        <v>0.2653550472511703</v>
+        <v>0.2653931284524837</v>
       </c>
       <c r="H33">
         <v>0.2723721013919859</v>
@@ -4196,7 +4196,7 @@
         <v>0.3276590896996688</v>
       </c>
       <c r="S33">
-        <v>0.3247129564896102</v>
+        <v>0.3247580985353641</v>
       </c>
       <c r="T33">
         <v>0.3290944693433463</v>
@@ -4273,7 +4273,7 @@
         <v>0.2380246396108998</v>
       </c>
       <c r="G34">
-        <v>0.2755195769522267</v>
+        <v>0.2755483756205312</v>
       </c>
       <c r="H34">
         <v>0.3101032167699375</v>
@@ -4309,7 +4309,7 @@
         <v>0.2095834658834861</v>
       </c>
       <c r="S34">
-        <v>0.2575959790873495</v>
+        <v>0.2576237430269178</v>
       </c>
       <c r="T34">
         <v>0.2920694424583474</v>
@@ -4386,7 +4386,7 @@
         <v>0.4549805749187109</v>
       </c>
       <c r="G35">
-        <v>0.4563397777238672</v>
+        <v>0.4563855147147456</v>
       </c>
       <c r="H35">
         <v>0.4566966489575337</v>
@@ -4422,7 +4422,7 @@
         <v>0.4469848327491369</v>
       </c>
       <c r="S35">
-        <v>0.4561329798029716</v>
+        <v>0.4561866975680259</v>
       </c>
       <c r="T35">
         <v>0.4560319607395396</v>
@@ -4499,7 +4499,7 @@
         <v>0.4221272520884568</v>
       </c>
       <c r="G36">
-        <v>0.4219415628426693</v>
+        <v>0.4219862976183414</v>
       </c>
       <c r="H36">
         <v>0.4251532568557637</v>
@@ -4535,7 +4535,7 @@
         <v>0.4150164508042253</v>
       </c>
       <c r="S36">
-        <v>0.4226738862384641</v>
+        <v>0.4227262448997204</v>
       </c>
       <c r="T36">
         <v>0.4267636779757766</v>
@@ -4612,7 +4612,7 @@
         <v>0.3513979034921683</v>
       </c>
       <c r="G37">
-        <v>0.3388521825709914</v>
+        <v>0.3388868713751998</v>
       </c>
       <c r="H37">
         <v>0.3723960693290226</v>
@@ -4648,7 +4648,7 @@
         <v>0.3489244874355052</v>
       </c>
       <c r="S37">
-        <v>0.3311247187734496</v>
+        <v>0.331163884807956</v>
       </c>
       <c r="T37">
         <v>0.3653771409837059</v>
@@ -4725,7 +4725,7 @@
         <v>0.4035276713213343</v>
       </c>
       <c r="G38">
-        <v>0.4178261259692442</v>
+        <v>0.4178709406052085</v>
       </c>
       <c r="H38">
         <v>0.4189891216736938</v>
@@ -4761,7 +4761,7 @@
         <v>0.3881888383918154</v>
       </c>
       <c r="S38">
-        <v>0.4118732686301944</v>
+        <v>0.4119254868866876</v>
       </c>
       <c r="T38">
         <v>0.4139814830820578</v>
@@ -4838,7 +4838,7 @@
         <v>0.4233187542603838</v>
       </c>
       <c r="G39">
-        <v>0.382278186781342</v>
+        <v>0.3823158740497801</v>
       </c>
       <c r="H39">
         <v>0.4083548484750665</v>
@@ -4874,7 +4874,7 @@
         <v>0.4215118047212934</v>
       </c>
       <c r="S39">
-        <v>0.3916648889983741</v>
+        <v>0.3917107913350392</v>
       </c>
       <c r="T39">
         <v>0.4151684128658024</v>
@@ -4948,100 +4948,100 @@
         <v>0.4566980309660951</v>
       </c>
       <c r="F40">
-        <v>0.3824088512837141</v>
+        <v>0.3811835088419753</v>
       </c>
       <c r="G40">
-        <v>0.3770609982574623</v>
+        <v>0.3758338697351701</v>
       </c>
       <c r="H40">
-        <v>0.4127593667760985</v>
+        <v>0.4114679133532849</v>
       </c>
       <c r="I40">
-        <v>0.3943663501694237</v>
+        <v>0.3930609007577206</v>
       </c>
       <c r="J40">
-        <v>0.3635246699510229</v>
+        <v>0.3622169425267835</v>
       </c>
       <c r="K40">
-        <v>0.3926482454878217</v>
+        <v>0.3913382320868731</v>
       </c>
       <c r="L40">
-        <v>0.3545467709936557</v>
+        <v>0.3532344636099866</v>
       </c>
       <c r="M40">
-        <v>0.4120935428115999</v>
+        <v>0.4107789333970668</v>
       </c>
       <c r="N40">
-        <v>0.4348698691276954</v>
+        <v>0.4335529495917267</v>
       </c>
       <c r="O40">
-        <v>0.4038836852487805</v>
+        <v>0.4025644474580774</v>
       </c>
       <c r="P40">
-        <v>0.4401340763659574</v>
+        <v>0.438828795506163</v>
       </c>
       <c r="Q40">
-        <v>0.4590964783792175</v>
+        <v>0.4578151122245528</v>
       </c>
       <c r="R40">
-        <v>0.3897606109885092</v>
+        <v>0.388502298998755</v>
       </c>
       <c r="S40">
-        <v>0.3684027839341263</v>
+        <v>0.3672005291482239</v>
       </c>
       <c r="T40">
-        <v>0.3950015899892271</v>
+        <v>0.3937869840480028</v>
       </c>
       <c r="U40">
-        <v>0.3585678708109403</v>
+        <v>0.3573739987694986</v>
       </c>
       <c r="V40">
-        <v>0.3914669959379324</v>
+        <v>0.3902931618022061</v>
       </c>
       <c r="W40">
-        <v>0.4156382098209863</v>
+        <v>0.4144837520630484</v>
       </c>
       <c r="X40">
-        <v>0.379920425954917</v>
+        <v>0.3787847152742175</v>
       </c>
       <c r="Y40">
-        <v>0.4286788027922687</v>
+        <v>0.4275612400557416</v>
       </c>
       <c r="Z40">
-        <v>0.450290995584779</v>
+        <v>0.4491910099289397</v>
       </c>
       <c r="AA40">
-        <v>0.4278361090975037</v>
+        <v>0.4267531561774867</v>
       </c>
       <c r="AB40">
-        <v>0.4507267082321049</v>
+        <v>0.4496602686041987</v>
       </c>
       <c r="AC40">
-        <v>0.4592597876993902</v>
+        <v>0.4582093653250385</v>
       </c>
       <c r="AD40">
-        <v>0.4111692237712219</v>
+        <v>0.4101343446317069</v>
       </c>
       <c r="AE40">
-        <v>0.3701129684977001</v>
+        <v>0.3690931793098258</v>
       </c>
       <c r="AF40">
-        <v>0.381756611535858</v>
+        <v>0.380751478559922</v>
       </c>
       <c r="AG40">
-        <v>0.364978421373912</v>
+        <v>0.3639875293061227</v>
       </c>
       <c r="AH40">
-        <v>0.4115065210303543</v>
+        <v>0.4105294719726136</v>
       </c>
       <c r="AI40">
-        <v>0.4318935300998507</v>
+        <v>0.4309299426005074</v>
       </c>
       <c r="AJ40">
-        <v>0.3993890243224769</v>
+        <v>0.3984385324822635</v>
       </c>
       <c r="AK40">
-        <v>0.4414379263737841</v>
+        <v>0.4405001790116926</v>
       </c>
     </row>
     <row r="41" spans="1:37">
@@ -5064,7 +5064,7 @@
         <v>0.3196283424638544</v>
       </c>
       <c r="G41">
-        <v>0.3907645058651306</v>
+        <v>0.3908034921372686</v>
       </c>
       <c r="H41">
         <v>0.4049411043960763</v>
@@ -5100,7 +5100,7 @@
         <v>0.3147916584135117</v>
       </c>
       <c r="S41">
-        <v>0.3854186565732267</v>
+        <v>0.3854632100515196</v>
       </c>
       <c r="T41">
         <v>0.3967356399752114</v>
@@ -5183,91 +5183,91 @@
         <v>0.2143053281560987</v>
       </c>
       <c r="I42">
-        <v>0.2172</v>
+        <v>0.215506617715737</v>
       </c>
       <c r="J42">
-        <v>0.4492579817823374</v>
+        <v>0.447561644541691</v>
       </c>
       <c r="K42">
-        <v>0.4571877735645842</v>
+        <v>0.4554884710367142</v>
       </c>
       <c r="L42">
-        <v>0.4514440257365394</v>
+        <v>0.4497417475363342</v>
       </c>
       <c r="M42">
-        <v>0.4568927234112972</v>
+        <v>0.4551874590989931</v>
       </c>
       <c r="N42">
-        <v>0.4578258823577829</v>
+        <v>0.4561176214385796</v>
       </c>
       <c r="O42">
-        <v>0.4506979593173451</v>
+        <v>0.4489866912410186</v>
       </c>
       <c r="P42">
-        <v>0.4401340763659574</v>
+        <v>0.4384409127212018</v>
       </c>
       <c r="Q42">
-        <v>0.4590964783792175</v>
+        <v>0.4574343360345881</v>
       </c>
       <c r="R42">
-        <v>0.4489197168101556</v>
+        <v>0.4472874795036593</v>
       </c>
       <c r="S42">
-        <v>0.3281750346690162</v>
+        <v>0.3265964659548982</v>
       </c>
       <c r="T42">
-        <v>0.2172</v>
+        <v>0.2156244566164027</v>
       </c>
       <c r="U42">
-        <v>0.2172</v>
+        <v>0.215651351889602</v>
       </c>
       <c r="V42">
-        <v>0.4519205808799408</v>
+        <v>0.450397925224132</v>
       </c>
       <c r="W42">
-        <v>0.4586478429155357</v>
+        <v>0.4571503216039504</v>
       </c>
       <c r="X42">
-        <v>0.4534783684181803</v>
+        <v>0.4520051651446534</v>
       </c>
       <c r="Y42">
-        <v>0.4576332719776943</v>
+        <v>0.4561836095682421</v>
       </c>
       <c r="Z42">
-        <v>0.4579363119085288</v>
+        <v>0.4565094498594574</v>
       </c>
       <c r="AA42">
-        <v>0.4534850922686322</v>
+        <v>0.4520803244752519</v>
       </c>
       <c r="AB42">
-        <v>0.4507267082321049</v>
+        <v>0.4493433608906124</v>
       </c>
       <c r="AC42">
-        <v>0.4592597876993902</v>
+        <v>0.4578972173663123</v>
       </c>
       <c r="AD42">
-        <v>0.4547949227170515</v>
+        <v>0.4534525145122619</v>
       </c>
       <c r="AE42">
-        <v>0.4592939703548359</v>
+        <v>0.4579711362955854</v>
       </c>
       <c r="AF42">
-        <v>0.2942734867196847</v>
+        <v>0.2929696641743452</v>
       </c>
       <c r="AG42">
-        <v>0.3682361665749853</v>
+        <v>0.3669508168263327</v>
       </c>
       <c r="AH42">
-        <v>0.4538301291921492</v>
+        <v>0.4525627361010024</v>
       </c>
       <c r="AI42">
-        <v>0.459340114942965</v>
+        <v>0.4580901837038858</v>
       </c>
       <c r="AJ42">
-        <v>0.4549958532271001</v>
+        <v>0.4537629092086459</v>
       </c>
       <c r="AK42">
-        <v>0.4581850157002205</v>
+        <v>0.4569686033629485</v>
       </c>
     </row>
     <row r="43" spans="1:37">
@@ -5290,7 +5290,7 @@
         <v>0.2343668817570708</v>
       </c>
       <c r="G43">
-        <v>0.2231659039734866</v>
+        <v>0.223176676209406</v>
       </c>
       <c r="H43">
         <v>0.2801589888795084</v>
@@ -5323,64 +5323,64 @@
         <v>0.518467419596915</v>
       </c>
       <c r="R43">
-        <v>0.4612322074682236</v>
+        <v>0.459572879478568</v>
       </c>
       <c r="S43">
-        <v>0.3501986085088196</v>
+        <v>0.3485841001162291</v>
       </c>
       <c r="T43">
-        <v>0.3553292336571874</v>
+        <v>0.3537275405547723</v>
       </c>
       <c r="U43">
-        <v>0.3547661994267726</v>
+        <v>0.3531918479856658</v>
       </c>
       <c r="V43">
-        <v>0.513887906564656</v>
+        <v>0.5123399789819233</v>
       </c>
       <c r="W43">
-        <v>0.5200498570611262</v>
+        <v>0.5185274809841124</v>
       </c>
       <c r="X43">
-        <v>0.514325503942494</v>
+        <v>0.5128278495165804</v>
       </c>
       <c r="Y43">
-        <v>0.5179356756274135</v>
+        <v>0.51646195277965</v>
       </c>
       <c r="Z43">
-        <v>0.517703854630439</v>
+        <v>0.5162533105667919</v>
       </c>
       <c r="AA43">
-        <v>0.5127273791152718</v>
+        <v>0.5112992960116414</v>
       </c>
       <c r="AB43">
-        <v>0.5094530878266573</v>
+        <v>0.5080467806959367</v>
       </c>
       <c r="AC43">
-        <v>0.5174793612831453</v>
+        <v>0.5160941760024561</v>
       </c>
       <c r="AD43">
-        <v>0.5125165528013343</v>
+        <v>0.511151864285219</v>
       </c>
       <c r="AE43">
-        <v>0.383065718489096</v>
+        <v>0.3817209289958969</v>
       </c>
       <c r="AF43">
-        <v>0.3442984422539194</v>
+        <v>0.3429729798138593</v>
       </c>
       <c r="AG43">
-        <v>0.3935853325989366</v>
+        <v>0.3922786495535563</v>
       </c>
       <c r="AH43">
-        <v>0.5096441181443221</v>
+        <v>0.5083556897879392</v>
       </c>
       <c r="AI43">
-        <v>0.5146971696239711</v>
+        <v>0.5134264929387279</v>
       </c>
       <c r="AJ43">
-        <v>0.5099035657519785</v>
+        <v>0.5086501582288463</v>
       </c>
       <c r="AK43">
-        <v>0.5126507905247426</v>
+        <v>0.5114141890635675</v>
       </c>
     </row>
     <row r="44" spans="1:37">
@@ -5403,7 +5403,7 @@
         <v>0.4555432707249172</v>
       </c>
       <c r="G44">
-        <v>0.4593500532516896</v>
+        <v>0.4593961034500786</v>
       </c>
       <c r="H44">
         <v>0.4592225391933483</v>
@@ -5439,7 +5439,7 @@
         <v>0.446742342734291</v>
       </c>
       <c r="S44">
-        <v>0.4589858031640635</v>
+        <v>0.4590398808764706</v>
       </c>
       <c r="T44">
         <v>0.4586658924558318</v>
@@ -5516,7 +5516,7 @@
         <v>0.4472251767706589</v>
       </c>
       <c r="G45">
-        <v>0.3909687734301501</v>
+        <v>0.3910036210318941</v>
       </c>
       <c r="H45">
         <v>0.4387663767868122</v>
@@ -5552,61 +5552,61 @@
         <v>0.4484804419757025</v>
       </c>
       <c r="S45">
-        <v>0.4088383472147726</v>
+        <v>0.4075070935600085</v>
       </c>
       <c r="T45">
-        <v>0.455845391703141</v>
+        <v>0.4544951404700199</v>
       </c>
       <c r="U45">
-        <v>0.4588546541918441</v>
+        <v>0.4575274523880061</v>
       </c>
       <c r="V45">
-        <v>0.4519205808799408</v>
+        <v>0.4506156547837895</v>
       </c>
       <c r="W45">
-        <v>0.4586478429155357</v>
+        <v>0.4573644571207399</v>
       </c>
       <c r="X45">
-        <v>0.4534783684181803</v>
+        <v>0.4522158233448889</v>
       </c>
       <c r="Y45">
-        <v>0.4576332719776943</v>
+        <v>0.4563909015825974</v>
       </c>
       <c r="Z45">
-        <v>0.4579363119085288</v>
+        <v>0.4567134815750006</v>
       </c>
       <c r="AA45">
-        <v>0.4534850922686322</v>
+        <v>0.4522811968602242</v>
       </c>
       <c r="AB45">
-        <v>0.4507267082321049</v>
+        <v>0.4495411702944442</v>
       </c>
       <c r="AC45">
-        <v>0.4592597876993902</v>
+        <v>0.4580920557971103</v>
       </c>
       <c r="AD45">
-        <v>0.4547949227170515</v>
+        <v>0.4536444698937656</v>
       </c>
       <c r="AE45">
-        <v>0.4266981933698383</v>
+        <v>0.4255645157203919</v>
       </c>
       <c r="AF45">
-        <v>0.4585272442549873</v>
+        <v>0.4574098596003063</v>
       </c>
       <c r="AG45">
-        <v>0.4588465989547993</v>
+        <v>0.4577450456106144</v>
       </c>
       <c r="AH45">
-        <v>0.4538301291921492</v>
+        <v>0.4527439648237249</v>
       </c>
       <c r="AI45">
-        <v>0.459340114942965</v>
+        <v>0.4582689154987264</v>
       </c>
       <c r="AJ45">
-        <v>0.4549958532271001</v>
+        <v>0.4539392119447216</v>
       </c>
       <c r="AK45">
-        <v>0.4581850157002205</v>
+        <v>0.4571425421793485</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -5629,7 +5629,7 @@
         <v>0.4469735696314502</v>
       </c>
       <c r="G46">
-        <v>0.4556217184131756</v>
+        <v>0.4556672141253162</v>
       </c>
       <c r="H46">
         <v>0.4565423507720616</v>
@@ -5665,7 +5665,7 @@
         <v>0.4312018900759094</v>
       </c>
       <c r="S46">
-        <v>0.4514875271816886</v>
+        <v>0.4515401493406895</v>
       </c>
       <c r="T46">
         <v>0.4526040849405057</v>
@@ -5742,7 +5742,7 @@
         <v>0.4702826034844253</v>
       </c>
       <c r="G47">
-        <v>0.4744271565290261</v>
+        <v>0.4744731501068457</v>
       </c>
       <c r="H47">
         <v>0.4741517698889056</v>
@@ -5778,7 +5778,7 @@
         <v>0.4617089507995769</v>
       </c>
       <c r="S47">
-        <v>0.4742216861571965</v>
+        <v>0.4742757560244482</v>
       </c>
       <c r="T47">
         <v>0.4740823539590167</v>
@@ -5855,7 +5855,7 @@
         <v>0.09757552268242038</v>
       </c>
       <c r="G48">
-        <v>0.1365512689634048</v>
+        <v>0.1365594540562117</v>
       </c>
       <c r="H48">
         <v>0.2020006870667982</v>
@@ -5891,7 +5891,7 @@
         <v>0.08328111308695682</v>
       </c>
       <c r="S48">
-        <v>0.09390407874667385</v>
+        <v>0.0939061280870906</v>
       </c>
       <c r="T48">
         <v>0.1388901670518866</v>
@@ -5968,7 +5968,7 @@
         <v>0.4455746907461762</v>
       </c>
       <c r="G49">
-        <v>0.4482833344216955</v>
+        <v>0.4483280045251918</v>
       </c>
       <c r="H49">
         <v>0.4501856646461079</v>
@@ -6004,7 +6004,7 @@
         <v>0.4327261908444905</v>
       </c>
       <c r="S49">
-        <v>0.4439540803103234</v>
+        <v>0.4440061283583988</v>
       </c>
       <c r="T49">
         <v>0.4457441267103454</v>
@@ -6081,7 +6081,7 @@
         <v>0.4564149389683763</v>
       </c>
       <c r="G50">
-        <v>0.4596759954728531</v>
+        <v>0.4597221076563779</v>
       </c>
       <c r="H50">
         <v>0.459426553073226</v>
@@ -6117,7 +6117,7 @@
         <v>0.4482345751883742</v>
       </c>
       <c r="S50">
-        <v>0.4596449345693583</v>
+        <v>0.459699159702822</v>
       </c>
       <c r="T50">
         <v>0.4591729696328598</v>
@@ -6194,7 +6194,7 @@
         <v>0.4260137825162916</v>
       </c>
       <c r="G51">
-        <v>0.4392372920604651</v>
+        <v>0.4392823781928665</v>
       </c>
       <c r="H51">
         <v>0.4411618714851321</v>
@@ -6230,7 +6230,7 @@
         <v>0.4235233401210243</v>
       </c>
       <c r="S51">
-        <v>0.4432633247009672</v>
+        <v>0.4433162826599981</v>
       </c>
       <c r="T51">
         <v>0.4448184473141212</v>
